--- a/medicine/Enfance/Munro_Leaf/Munro_Leaf.xlsx
+++ b/medicine/Enfance/Munro_Leaf/Munro_Leaf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilbur Monroe Leaf surnommé Munro Leaf (4 décembre 1905 à Hamilton (en), Maryland – 21 décembre 1976) était un auteur de littérature enfantine américain. Il a écrit près d'une quarantaine d'œuvres durant autant d'années de carrière. Son histoire la plus connue est L'histoire de Ferdinand (1936), adaptée sous le nom Ferdinand le taureau (1938) par les studios Disney et Ferdinand (2017) par Blue Sky Studios.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Éditions françaises
-Ferdinand / d'après Munro Leaf, et Robert Lawson ; illustrations de Walt Disney. Paris : Hachette, 1939, 48 p.
+          <t>Éditions françaises</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ferdinand / d'après Munro Leaf, et Robert Lawson ; illustrations de Walt Disney. Paris : Hachette, 1939, 48 p.
 Ferdinand / d'après Munro Leaf et Robert Lawson. Paris : Hachette, 1950, 28 p.
 Ferdinand / Munro Leaf ; illustrations de Robert Lawson. Paris : l'École des loisirs, coll. "Renard poche" n° 66, 1978, 70 p.
-Ferdinando le Terrible / texte d'après Munro Leaf (1936) ; adapt. de Myriam Caron et Catherine Morel ; ill. de Jean-François Caritte. Pour ou contre la corrida ? / [reportage de Catherine Morel et Myriam Caron] ; [photogr. par Myriam Caron]. Mouans-Sartoux : PEMF, coll. "Côté pile côté face", 2002, [25]-15 p.  (ISBN 2-84526-405-4)
-Ferdinand / Munro Leaf ; illustrations de Robert Lawson. Paris : Michel Lafon, 2017, 72 p.  (ISBN 978-2-7499-3319-1)
-Éditions en version originale
-Leaf, Munro, Grammar Can Be Fun New York: Frederick A. Stokes Company, 1934.
+Ferdinando le Terrible / texte d'après Munro Leaf (1936) ; adapt. de Myriam Caron et Catherine Morel ; ill. de Jean-François Caritte. Pour ou contre la corrida ? / [reportage de Catherine Morel et Myriam Caron] ; [photogr. par Myriam Caron]. Mouans-Sartoux : PEMF, coll. "Côté pile côté face", 2002, -15 p.  (ISBN 2-84526-405-4)
+Ferdinand / Munro Leaf ; illustrations de Robert Lawson. Paris : Michel Lafon, 2017, 72 p.  (ISBN 978-2-7499-3319-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Munro_Leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Munro_Leaf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Éditions en version originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leaf, Munro, Grammar Can Be Fun New York: Frederick A. Stokes Company, 1934.
 Mun (Munro Leaf) Lo, the Poor Indian New York: Leaf, Mahoney, Seidel &amp; Stokes, 1934.
 Leaf, Munro, The Boy Who Would Not Go to School: Robert Francis Weatherbee New York, Frederick A. Stokes Co., 1935.
 Leaf, Munro, Manners Can Be Fun New York, Frederick A. Stokes Company, 1936
